--- a/relation/F-R.xlsx
+++ b/relation/F-R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LXKJ\phm\relation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE83ACC-BCEE-4CC4-A412-5416C0FEC8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4257D960-A075-4AB6-A01D-FA0D3EC04841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="293">
   <si>
     <t>序号</t>
   </si>
@@ -1007,6 +1007,10 @@
   </si>
   <si>
     <t>1-0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-N</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1992,14 +1996,14 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2688,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10187,8 +10191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA92"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13588,11 +13592,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AV16041"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G72" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G24" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17211,7 +17215,7 @@
       <c r="AB91" s="48"/>
     </row>
     <row r="92" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="103" t="s">
+      <c r="A92" s="102" t="s">
         <v>291</v>
       </c>
       <c r="B92" s="49" t="s">
@@ -65118,21 +65122,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23349BD-AC90-427B-83DD-C841E119331E}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="103" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>285</v>
       </c>
@@ -65140,7 +65148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="21" t="s">
         <v>285</v>
       </c>
@@ -65148,7 +65156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="21" t="s">
         <v>285</v>
       </c>
@@ -65156,7 +65164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="21" t="s">
         <v>285</v>
       </c>
@@ -65164,7 +65172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>285</v>
       </c>
@@ -65172,7 +65180,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>285</v>
       </c>
@@ -65180,7 +65188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
         <v>285</v>
       </c>
@@ -65188,7 +65196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="21" t="s">
         <v>285</v>
       </c>
@@ -65196,7 +65204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="21" t="s">
         <v>285</v>
       </c>
@@ -65212,7 +65220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="s">
         <v>285</v>
       </c>
@@ -65220,7 +65228,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
         <v>285</v>
       </c>
@@ -65228,7 +65236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>285</v>
       </c>
@@ -65236,7 +65244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>285</v>
       </c>
@@ -65244,7 +65252,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
         <v>285</v>
       </c>
@@ -65260,7 +65268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="21" t="s">
         <v>285</v>
       </c>
@@ -65268,7 +65276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="21" t="s">
         <v>286</v>
       </c>
@@ -65276,7 +65284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
         <v>285</v>
       </c>
@@ -65284,7 +65292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="21" t="s">
         <v>286</v>
       </c>
@@ -65292,7 +65300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="21" t="s">
         <v>285</v>
       </c>
@@ -65300,7 +65308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
         <v>285</v>
       </c>
@@ -65308,7 +65316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
         <v>285</v>
       </c>
@@ -65316,7 +65324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="21" t="s">
         <v>285</v>
       </c>
@@ -65324,7 +65332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="21" t="s">
         <v>285</v>
       </c>
@@ -65332,7 +65340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="21" t="s">
         <v>285</v>
       </c>
@@ -65340,7 +65348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
         <v>285</v>
       </c>
@@ -65356,7 +65364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="27" t="s">
         <v>286</v>
       </c>
@@ -65364,7 +65372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="27" t="s">
         <v>286</v>
       </c>
@@ -65372,7 +65380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="28" t="s">
         <v>286</v>
       </c>
@@ -65380,7 +65388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="27" t="s">
         <v>286</v>
       </c>
@@ -65388,7 +65396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="28" t="s">
         <v>286</v>
       </c>
@@ -65396,7 +65404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="27" t="s">
         <v>286</v>
       </c>
@@ -65404,7 +65412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="21" t="s">
         <v>285</v>
       </c>
@@ -65412,7 +65420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="27" t="s">
         <v>286</v>
       </c>
@@ -65420,7 +65428,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
         <v>286</v>
       </c>
@@ -65436,7 +65444,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
         <v>286</v>
       </c>
@@ -65444,7 +65452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="27" t="s">
         <v>286</v>
       </c>
@@ -65452,7 +65460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="27" t="s">
         <v>286</v>
       </c>
@@ -65460,7 +65468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="27" t="s">
         <v>286</v>
       </c>
@@ -65469,15 +65477,15 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A45" s="102" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B45" s="22" t="s">
@@ -65485,14 +65493,14 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B46" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="27" t="s">
         <v>286</v>
       </c>
@@ -65500,7 +65508,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="27" t="s">
         <v>286</v>
       </c>
@@ -65508,7 +65516,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
         <v>286</v>
       </c>
@@ -65516,7 +65524,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="27" t="s">
         <v>286</v>
       </c>
@@ -65524,7 +65532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
         <v>285</v>
       </c>
@@ -65532,7 +65540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="21" t="s">
         <v>285</v>
       </c>
@@ -65540,7 +65548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="21" t="s">
         <v>285</v>
       </c>
@@ -65548,7 +65556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="21" t="s">
         <v>285</v>
       </c>
@@ -65564,7 +65572,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="21" t="s">
         <v>285</v>
       </c>
@@ -65572,7 +65580,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="21" t="s">
         <v>285</v>
       </c>
@@ -65580,7 +65588,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="21" t="s">
         <v>285</v>
       </c>
@@ -65588,7 +65596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="21" t="s">
         <v>285</v>
       </c>
@@ -65596,7 +65604,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="21" t="s">
         <v>285</v>
       </c>
@@ -65604,7 +65612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="21" t="s">
         <v>285</v>
       </c>
@@ -65612,7 +65620,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="21" t="s">
         <v>285</v>
       </c>
@@ -65620,7 +65628,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="21" t="s">
         <v>285</v>
       </c>
@@ -65628,7 +65636,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="21" t="s">
         <v>285</v>
       </c>
@@ -65636,7 +65644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="21" t="s">
         <v>285</v>
       </c>
@@ -65644,7 +65652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="21" t="s">
         <v>285</v>
       </c>
@@ -65652,7 +65660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="21" t="s">
         <v>285</v>
       </c>
@@ -65660,7 +65668,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="21" t="s">
         <v>285</v>
       </c>
@@ -65668,7 +65676,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="21" t="s">
         <v>285</v>
       </c>
@@ -65676,7 +65684,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="21" t="s">
         <v>285</v>
       </c>
@@ -65684,7 +65692,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="21" t="s">
         <v>285</v>
       </c>
@@ -65692,55 +65700,55 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A72" s="102" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A73" s="102" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A74" s="102" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B74" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A75" s="102" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A76" s="102" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A77" s="102" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="21" t="s">
         <v>285</v>
       </c>
@@ -65748,7 +65756,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="21" t="s">
         <v>285</v>
       </c>
@@ -65757,7 +65765,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B80" s="22" t="s">
@@ -65772,7 +65780,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="27" t="s">
         <v>286</v>
       </c>
@@ -65780,23 +65788,23 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A83" s="102" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A84" s="102" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B84" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="21" t="s">
         <v>285</v>
       </c>
@@ -65804,7 +65812,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="21" t="s">
         <v>285</v>
       </c>
@@ -65812,7 +65820,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="21" t="s">
         <v>285</v>
       </c>
@@ -65820,23 +65828,23 @@
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A88" s="102" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A89" s="102" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="101" t="s">
         <v>290</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="21" t="s">
         <v>285</v>
       </c>
@@ -65844,9 +65852,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="s">
-        <v>285</v>
+    <row r="91" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="102" t="s">
+        <v>292</v>
       </c>
       <c r="B91" s="49" t="s">
         <v>182</v>
@@ -65856,5 +65864,6 @@
   <autoFilter ref="A1:B91" xr:uid="{00A12637-A0A5-4925-AB52-F43E499BD98B}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>